--- a/data/trans_camb/P6902-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6902-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P6902-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6902-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,84</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,94</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-13,45; 25,83</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-27,07; 27,52</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-26,26; 19,39</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-47,15; 3,35</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,33; 18,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,19; 11,29</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>12,52%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4,52%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-4,88%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-34,06%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,07%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-21,21; 73,03</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-45,83; 76,0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-33,22; 37,42</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-62,99; 6,5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,65; 40,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,76; 24,58</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,27</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,28</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,01; 23,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,85; 0,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,76; 25,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,74; 11,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,64; 23,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,26; 16,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,34; 15,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,54; 5,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,64; 18,56</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,72%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,98; 70,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,19; 3,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,46; 71,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,98; 22,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,78; 48,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,11; 37,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,63; 38,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,83; 14,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,95; 46,19</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>33,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,04</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>44,91</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,27</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,66; 10,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,88; -2,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,29; 27,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,93; 61,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,99; 44,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,81; 61,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,65; 25,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,24; 7,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,82; 36,19</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,81%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>187,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>255,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,33%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,26%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,08; 39,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,7; 7,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,49; 95,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,23; 1118,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,48; 761,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,44; 1068,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,55; 105,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,22; 35,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,34; 168,52</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>31,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>32,14</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,63</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,37</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,65</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,22</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,29; 27,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,07; 50,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,28; 51,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,55; 40,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,13; 31,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,42; 33,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 27,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,54; 37,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 36,95</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,76%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,4%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,02%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,37%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,26%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,34%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,72; 87,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,31; 143,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,63; 149,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,39; 110,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,58; 75,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,18; 81,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 68,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,9; 91,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 92,43</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,73</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>36,02</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,42</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,1</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,18</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>35,75</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,81</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,09; -1,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 64,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 54,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,5; 43,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 71,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,92; 48,58</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,63; 17,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,98; 59,43</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,99; 47,2</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,64%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,35%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,85%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,14%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,09%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,5%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,61%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,69%</t>
         </is>
       </c>
     </row>
@@ -1660,42 +1660,42 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,06; 420,17</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,82; 386,17</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,46; 111,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 250,61</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,63; 159,88</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,34; 63,67</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,0; 228,06</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,86; 192,89</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,13</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,94</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,05</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,86</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,95</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,14</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,53; 29,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,16; 12,34</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,14; 32,31</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,84; 16,33</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,39; 19,54</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,03; 7,66</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,09; 17,2</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,5; 6,04</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,37; 16,43</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,72%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,48%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,77%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,69%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,57%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,13%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,84%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,07; 103,48</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,7; 37,68</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,96; 110,01</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,78; 31,17</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,68; 32,79</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,22; 14,48</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,03; 43,68</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,98; 18,42</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,78; 42,88</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,84</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,76</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,23</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,65</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,55</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,84</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,02</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,7</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,03; 28,44</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,67; 10,54</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,42; 35,43</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,08; 27,72</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 38,17</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,91; 44,34</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 23,44</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,03; 17,38</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,07; 34,98</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,13%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,29%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,76%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,54%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,76%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,15%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,79%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,16; 72,25</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,25; 26,42</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,6; 93,81</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,91; 75,23</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 105,6</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,05; 131,04</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,21; 56,76</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,49; 41,61</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,14; 88,4</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,33</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,02</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>38,67</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,56</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,98</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>34,43</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,32; 10,08</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,6; 28,59</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,14; 51,24</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,87; 25,24</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,91; 29,9</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,47; 47,16</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,4; 9,55</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,38; 23,17</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,83; 45,67</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,06%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,13%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,24%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,88%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,94%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,69%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,58; 28,84</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,62; 81,09</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,88; 154,92</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,14; 76,35</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,06; 93,37</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,18; 148,41</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,53; 26,98</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,94; 60,11</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,86; 127,99</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,97</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,64</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,76</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,76; 10,4</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,6; 7,24</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,01; 25,77</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 15,87</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 18,05</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,9; 22,61</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 10,73</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 10,16</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,95; 23,31</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,7%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,67%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,31; 25,86</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,43; 17,69</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,63; 64,46</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,05; 34,04</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 40,37</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,13; 49,07</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 25,35</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,13; 23,7</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,33; 54,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6902-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6902-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>18,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-22,84</t>
+          <t>-22,39</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>14,1</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>-6,16</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,75; 30,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 27,52</t>
+          <t>-24,93; 30,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,93; 38,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-47,15; 3,35</t>
+          <t>-47,15; 4,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,99; 29,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-27,19; 11,29</t>
+          <t>-25,63; 14,02</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-34,06%</t>
+          <t>-33,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-14,07%</t>
+          <t>-10,9%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,5; 84,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,83; 76,0</t>
+          <t>-42,27; 81,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,96; 78,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,99; 6,5</t>
+          <t>-62,5; 7,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,06; 64,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-42,76; 24,58</t>
+          <t>-40,05; 29,37</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>1,82</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 25,26</t>
+          <t>-20,1; 24,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,26; 16,8</t>
+          <t>-25,4; 16,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 18,56</t>
+          <t>-13,18; 18,56</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,63%</t>
+          <t>-7,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>3,75%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-40,46; 71,72</t>
+          <t>-41,4; 73,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,11; 37,39</t>
+          <t>-34,57; 36,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 46,19</t>
+          <t>-23,98; 46,39</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>44,91</t>
+          <t>45,03</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>22,41</t>
+          <t>22,45</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 27,96</t>
+          <t>-15,81; 28,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,81; 61,21</t>
+          <t>20,91; 61,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,82; 36,19</t>
+          <t>5,85; 36,22</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>255,55%</t>
+          <t>256,24%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>68,26%</t>
+          <t>68,39%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 95,75</t>
+          <t>-29,22; 97,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,44; 1068,89</t>
+          <t>45,84; 1082,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,34; 168,52</t>
+          <t>12,59; 169,29</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,08</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>32,14</t>
+          <t>32,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,63</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>-12,42</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,37</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>20,22</t>
+          <t>6,9</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 27,71</t>
+          <t>-13,11; 27,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,28; 51,48</t>
+          <t>6,65; 50,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 40,6</t>
+          <t>-25,1; 30,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,42; 33,71</t>
+          <t>-61,11; 27,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 27,06</t>
+          <t>-9,12; 24,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 36,95</t>
+          <t>-26,89; 33,31</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>70,4%</t>
+          <t>70,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>-21,69%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>29,37%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>41,34%</t>
+          <t>14,1%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 87,93</t>
+          <t>-25,37; 77,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,63; 149,48</t>
+          <t>13,37; 149,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 110,97</t>
+          <t>-35,26; 71,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 81,02</t>
+          <t>-79,6; 54,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 68,77</t>
+          <t>-15,51; 62,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 92,43</t>
+          <t>-51,33; 72,91</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>27,42</t>
+          <t>26,96</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>25,81</t>
+          <t>25,58</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 54,22</t>
+          <t>-2,12; 53,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-22,92; 48,58</t>
+          <t>-22,61; 48,75</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,99; 47,2</t>
+          <t>2,96; 46,99</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>90,85%</t>
+          <t>89,33%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>64,69%</t>
+          <t>64,12%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 386,17</t>
+          <t>-5,92; 383,8</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-24,63; 159,88</t>
+          <t>-23,89; 164,41</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>3,86; 192,89</t>
+          <t>3,07; 188,76</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>9,94</t>
+          <t>9,69</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-20,86</t>
+          <t>-21,21</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>1,84</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 32,31</t>
+          <t>-13,55; 32,14</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-46,03; 7,66</t>
+          <t>-46,33; 7,1</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 16,43</t>
+          <t>-16,74; 16,05</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-28,57%</t>
+          <t>-29,05%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>3,68%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-24,96; 110,01</t>
+          <t>-25,26; 109,72</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-53,22; 14,48</t>
+          <t>-53,52; 13,87</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-25,78; 42,88</t>
+          <t>-26,3; 42,12</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>20,23</t>
+          <t>20,11</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>26,84</t>
+          <t>26,89</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>23,7</t>
+          <t>23,57</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,42; 35,43</t>
+          <t>2,62; 35,42</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>9,91; 44,34</t>
+          <t>10,0; 44,34</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>13,07; 34,98</t>
+          <t>12,9; 34,91</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>42,76%</t>
+          <t>42,49%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>55,76%</t>
+          <t>55,84%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>49,79%</t>
+          <t>49,52%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>5,6; 93,81</t>
+          <t>5,61; 94,79</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>16,05; 131,04</t>
+          <t>16,17; 131,13</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>24,14; 88,4</t>
+          <t>23,93; 88,03</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>38,67</t>
+          <t>38,64</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>29,56</t>
+          <t>30,27</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>34,43</t>
+          <t>34,83</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>23,14; 51,24</t>
+          <t>22,9; 51,18</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>1,47; 47,16</t>
+          <t>3,07; 47,46</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>18,83; 45,67</t>
+          <t>20,25; 46,06</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>69,88%</t>
+          <t>71,55%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>83,69%</t>
+          <t>84,68%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>49,88; 154,92</t>
+          <t>49,54; 155,42</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>7,18; 148,41</t>
+          <t>13,12; 156,01</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>42,86; 127,99</t>
+          <t>46,25; 131,54</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>18,97</t>
+          <t>18,43</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>13,64</t>
+          <t>9,16</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>17,76</t>
+          <t>15,22</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>11,01; 25,77</t>
+          <t>10,22; 25,32</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>3,9; 22,61</t>
+          <t>-8,86; 19,0</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>11,95; 23,31</t>
+          <t>3,88; 21,24</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>43,7%</t>
+          <t>42,44%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>38,67%</t>
+          <t>33,14%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>23,63; 64,46</t>
+          <t>22,17; 62,92</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>7,13; 49,07</t>
+          <t>-16,09; 40,18</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>24,33; 54,14</t>
+          <t>8,49; 48,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6902-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6902-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 30,99</t>
+          <t>-13,1; 33,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 25,83</t>
+          <t>-15,34; 25,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 30,38</t>
+          <t>-22,93; 32,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 38,64</t>
+          <t>-3,66; 40,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,26; 19,39</t>
+          <t>-26,1; 22,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-47,15; 4,23</t>
+          <t>-48,04; 5,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 29,39</t>
+          <t>-2,82; 30,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 18,69</t>
+          <t>-13,33; 18,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 14,02</t>
+          <t>-26,3; 13,65</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 84,52</t>
+          <t>-21,12; 94,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 73,03</t>
+          <t>-26,31; 71,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,27; 81,53</t>
+          <t>-38,45; 92,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 78,22</t>
+          <t>-3,74; 78,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,22; 37,42</t>
+          <t>-32,86; 43,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,5; 7,8</t>
+          <t>-63,19; 10,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 64,45</t>
+          <t>-3,5; 65,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 40,65</t>
+          <t>-19,82; 38,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-40,05; 29,37</t>
+          <t>-42,28; 26,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 23,43</t>
+          <t>-11,63; 25,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,85; 0,57</t>
+          <t>-32,86; 1,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 24,99</t>
+          <t>-21,67; 23,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,74; 11,21</t>
+          <t>-35,0; 13,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,64; 23,01</t>
+          <t>-19,07; 23,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 16,54</t>
+          <t>-25,15; 19,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 15,26</t>
+          <t>-15,17; 14,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 5,3</t>
+          <t>-23,81; 3,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 18,56</t>
+          <t>-14,62; 17,37</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 70,6</t>
+          <t>-22,38; 82,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,19; 3,17</t>
+          <t>-62,25; 3,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,4; 73,77</t>
+          <t>-43,4; 69,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,98; 22,7</t>
+          <t>-51,23; 27,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,78; 48,8</t>
+          <t>-27,24; 52,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 36,83</t>
+          <t>-34,96; 40,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,63; 38,41</t>
+          <t>-26,56; 34,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-40,83; 14,0</t>
+          <t>-43,85; 8,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,98; 46,39</t>
+          <t>-25,31; 40,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 10,33</t>
+          <t>-36,82; 9,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-47,88; -2,43</t>
+          <t>-47,53; 0,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 28,31</t>
+          <t>-16,26; 26,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 61,61</t>
+          <t>3,52; 59,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 44,34</t>
+          <t>-15,11; 42,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,91; 61,33</t>
+          <t>20,79; 61,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 25,42</t>
+          <t>-14,43; 24,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-29,24; 7,89</t>
+          <t>-27,71; 7,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,85; 36,22</t>
+          <t>6,12; 37,46</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-70,08; 39,71</t>
+          <t>-71,76; 32,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-89,7; 7,13</t>
+          <t>-89,72; 15,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-29,22; 97,52</t>
+          <t>-29,76; 96,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 1118,32</t>
+          <t>0,32; 1011,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-69,48; 761,82</t>
+          <t>-69,81; 572,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,84; 1082,76</t>
+          <t>54,97; 1309,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,55; 105,9</t>
+          <t>-37,8; 99,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-72,22; 35,93</t>
+          <t>-69,99; 36,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,59; 169,29</t>
+          <t>13,13; 170,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 27,01</t>
+          <t>-10,71; 28,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,07; 50,1</t>
+          <t>7,31; 50,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,65; 50,81</t>
+          <t>7,98; 52,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-25,1; 30,07</t>
+          <t>-23,54; 30,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 31,03</t>
+          <t>-19,69; 35,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-61,11; 27,55</t>
+          <t>-52,45; 24,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 24,53</t>
+          <t>-9,32; 23,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,54; 37,03</t>
+          <t>4,97; 36,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 33,31</t>
+          <t>-32,68; 33,04</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 77,12</t>
+          <t>-21,1; 82,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,31; 143,42</t>
+          <t>15,09; 146,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,37; 149,82</t>
+          <t>15,27; 155,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,26; 71,46</t>
+          <t>-35,0; 73,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,58; 75,48</t>
+          <t>-27,65; 88,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-79,6; 54,12</t>
+          <t>-74,7; 49,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 62,3</t>
+          <t>-16,59; 60,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,9; 91,76</t>
+          <t>9,51; 93,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-51,33; 72,91</t>
+          <t>-52,76; 71,43</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-45,09; -1,0</t>
+          <t>-47,62; 2,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 64,56</t>
+          <t>0,34; 66,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 53,68</t>
+          <t>-4,41; 52,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-48,5; 43,43</t>
+          <t>-46,58; 41,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,48</t>
+          <t>0,0; 71,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 48,75</t>
+          <t>-24,17; 47,9</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-31,63; 17,63</t>
+          <t>-33,22; 17,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,98; 59,43</t>
+          <t>5,37; 59,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,96; 46,99</t>
+          <t>1,23; 45,23</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 79,04</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 420,17</t>
+          <t>1,39; 513,09</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 383,8</t>
+          <t>-11,5; 351,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-55,46; 111,67</t>
+          <t>-53,87; 109,75</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 250,61</t>
+          <t>0,0; 247,63</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-23,89; 164,41</t>
+          <t>-25,32; 143,86</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-66,34; 63,67</t>
+          <t>-64,25; 66,23</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>7,0; 228,06</t>
+          <t>9,99; 235,34</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>3,07; 188,76</t>
+          <t>4,0; 182,34</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 29,33</t>
+          <t>-13,4; 29,51</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-37,16; 12,34</t>
+          <t>-36,89; 9,87</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 32,14</t>
+          <t>-15,38; 30,8</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-54,84; 16,33</t>
+          <t>-56,09; 14,62</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-65,39; 19,54</t>
+          <t>-67,14; 22,35</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-46,33; 7,1</t>
+          <t>-46,38; 6,48</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-20,09; 17,2</t>
+          <t>-18,22; 17,68</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-37,5; 6,04</t>
+          <t>-37,73; 5,4</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 16,05</t>
+          <t>-16,66; 18,68</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-28,07; 103,48</t>
+          <t>-25,76; 106,83</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-72,7; 37,68</t>
+          <t>-74,57; 33,73</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-25,26; 109,72</t>
+          <t>-29,89; 98,13</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-65,78; 31,17</t>
+          <t>-66,45; 22,79</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-81,68; 32,79</t>
+          <t>-82,45; 42,84</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-53,52; 13,87</t>
+          <t>-52,29; 12,47</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-33,03; 43,68</t>
+          <t>-31,2; 46,16</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-68,98; 18,42</t>
+          <t>-67,28; 13,01</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-26,3; 42,12</t>
+          <t>-27,94; 45,45</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 28,44</t>
+          <t>-5,35; 29,93</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-21,67; 10,54</t>
+          <t>-22,96; 9,8</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,62; 35,42</t>
+          <t>3,88; 36,41</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 27,72</t>
+          <t>-14,24; 29,37</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 38,17</t>
+          <t>-1,33; 40,38</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>10,0; 44,34</t>
+          <t>10,28; 43,65</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 23,44</t>
+          <t>-2,33; 23,15</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 17,38</t>
+          <t>-10,61; 15,63</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12,9; 34,91</t>
+          <t>12,32; 34,18</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 72,25</t>
+          <t>-10,39; 72,94</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-41,25; 26,42</t>
+          <t>-43,29; 24,57</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>5,61; 94,79</t>
+          <t>7,4; 98,34</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 75,23</t>
+          <t>-25,13; 79,31</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 105,6</t>
+          <t>-3,1; 116,43</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>16,17; 131,13</t>
+          <t>16,36; 128,66</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 56,76</t>
+          <t>-4,31; 56,11</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 41,61</t>
+          <t>-19,15; 37,11</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>23,93; 88,03</t>
+          <t>23,08; 85,33</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 10,08</t>
+          <t>-23,63; 9,41</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 28,59</t>
+          <t>-8,73; 29,22</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>22,9; 51,18</t>
+          <t>21,87; 52,21</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-23,87; 25,24</t>
+          <t>-22,93; 23,85</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-23,91; 29,9</t>
+          <t>-22,81; 29,5</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>3,07; 47,46</t>
+          <t>3,53; 48,07</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 9,55</t>
+          <t>-17,89; 10,58</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 23,17</t>
+          <t>-6,81; 23,71</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>20,25; 46,06</t>
+          <t>19,86; 46,31</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-52,58; 28,84</t>
+          <t>-51,07; 29,2</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 81,09</t>
+          <t>-19,47; 80,8</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>49,54; 155,42</t>
+          <t>47,36; 157,71</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-48,14; 76,35</t>
+          <t>-46,32; 72,11</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-49,06; 93,37</t>
+          <t>-46,78; 97,2</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>13,12; 156,01</t>
+          <t>12,98; 157,33</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-37,53; 26,98</t>
+          <t>-39,8; 29,58</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 60,11</t>
+          <t>-15,68; 65,21</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>46,25; 131,54</t>
+          <t>45,01; 134,67</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 10,4</t>
+          <t>-3,32; 10,75</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 7,24</t>
+          <t>-7,17; 6,81</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>10,22; 25,32</t>
+          <t>11,83; 25,95</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 15,87</t>
+          <t>-3,15; 15,3</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 18,05</t>
+          <t>-1,21; 18,09</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 19,0</t>
+          <t>-8,95; 19,12</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 10,73</t>
+          <t>-0,68; 10,81</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 10,16</t>
+          <t>-1,91; 9,6</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>3,88; 21,24</t>
+          <t>4,85; 21,39</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 25,86</t>
+          <t>-7,2; 25,81</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 17,69</t>
+          <t>-15,62; 16,88</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>22,17; 62,92</t>
+          <t>25,51; 64,31</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 34,04</t>
+          <t>-5,97; 33,11</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 40,37</t>
+          <t>-2,09; 39,78</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 40,18</t>
+          <t>-15,4; 40,44</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 25,35</t>
+          <t>-1,37; 25,55</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 23,7</t>
+          <t>-3,76; 22,4</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>8,49; 48,43</t>
+          <t>11,16; 49,41</t>
         </is>
       </c>
     </row>
